--- a/medicine/Sexualité et sexologie/Chronophilie/Chronophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Chronophilie/Chronophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chronophilie (du grec ancien χρόνος / khrónos (« temps ») et φιλία / philía (« amour »)) est un terme utilisé par John Money pour désigner l'attirance sexuelle d'un individu pour des personnes présentant un âge particulier.
 Le fantasme est à double sens. Un(e) jeune qui ressent de l'attirance pour une personne âgée est chronophile (plus précisément gérontophile), de la même façon qu'une personne qui ressent de l'attirance pour des enfants prépubères plus jeunes qu'elle est chronophile (plus précisément attirance sexuel juvénile).
